--- a/TestData/Web_POS/Billing/keyboard_shortcut_test_data.xlsx
+++ b/TestData/Web_POS/Billing/keyboard_shortcut_test_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr fullPrecision="1" calcId="125725"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,324 +19,444 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="84">
-  <si>
-    <t xml:space="preserve">TC_Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">serial_key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">username_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">username_pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password_pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">closing_balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opening_balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">store_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assortment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buy_items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">get_items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manual_discount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">discount_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carry_bag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price_Override</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salesperson_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customer_phone_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">307260624P3E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zwshashank.agrawal@teampureplay.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">userone_p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Index9QA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NULL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dummy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">737534800034 : 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QBSB-Specificqty-Flat-percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8906118410781 : 2,  8906118412556 : 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maharashtra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saloni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexa67 : 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8906118410781: 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list : Assortment_Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount : 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cash : 100, paytm : 100, voucher : 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8906118410781 : 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QBSB-Specificqty-Flat-rupees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QBSB-Any Qty-get pool-spf-Rupees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8906118412761 : 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">307220524Dzl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MrunalJagtap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rudraksha : 2, Carry bag : 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QBSB-Specificity-Flat-fixed-all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">737534800034 : 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_29</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115" count="647">
+  <si>
+    <t>TC_Id</t>
+  </si>
+  <si>
+    <t>serial_key</t>
+  </si>
+  <si>
+    <t>username_admin</t>
+  </si>
+  <si>
+    <t>password_admin</t>
+  </si>
+  <si>
+    <t>username_pos</t>
+  </si>
+  <si>
+    <t>password_pos</t>
+  </si>
+  <si>
+    <t>closing_balance</t>
+  </si>
+  <si>
+    <t>opening_balance</t>
+  </si>
+  <si>
+    <t>store_name</t>
+  </si>
+  <si>
+    <t>assortment</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>buy_items</t>
+  </si>
+  <si>
+    <t>get_items</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>manual_discount</t>
+  </si>
+  <si>
+    <t>discount_value</t>
+  </si>
+  <si>
+    <t>carry_bag</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Price_Override</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>salesperson_name</t>
+  </si>
+  <si>
+    <t>customer_phone_number</t>
+  </si>
+  <si>
+    <t>KB_1</t>
+  </si>
+  <si>
+    <t>307260624P3E</t>
+  </si>
+  <si>
+    <t>zwshashank.agrawal@teampureplay.com</t>
+  </si>
+  <si>
+    <t>userone_p1</t>
+  </si>
+  <si>
+    <t>Index9QA</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Dummy</t>
+  </si>
+  <si>
+    <t>TC_2</t>
+  </si>
+  <si>
+    <t>737534800034 : 2</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>QBSB-Specificqty-Flat-percentage</t>
+  </si>
+  <si>
+    <t>8906118410781 : 2,  8906118412556 : 2</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Saloni</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Alexa67 : 2</t>
+  </si>
+  <si>
+    <t>8906118410781: 4</t>
+  </si>
+  <si>
+    <t>list : Assortment_Item</t>
+  </si>
+  <si>
+    <t>Amount : 10</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>cash : 100, paytm : 100, voucher : 0</t>
+  </si>
+  <si>
+    <t>8906118410781 : 1</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>QBSB-Specificqty-Flat-rupees</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>QBSB-Any Qty-get pool-spf-Rupees</t>
+  </si>
+  <si>
+    <t>8906118412761 : 1</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>307220524Dzl</t>
+  </si>
+  <si>
+    <t>MrunalJagtap</t>
+  </si>
+  <si>
+    <t>Rudraksha : 2, Carry bag : 1</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>QBSB-Specificity-Flat-fixed-all</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>737534800034 : 1</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>TC_21</t>
+  </si>
+  <si>
+    <t>TC_22</t>
+  </si>
+  <si>
+    <t>TC_23</t>
+  </si>
+  <si>
+    <t>TC_24</t>
+  </si>
+  <si>
+    <t>TC_25</t>
+  </si>
+  <si>
+    <t>TC_26</t>
+  </si>
+  <si>
+    <t>TC_27</t>
+  </si>
+  <si>
+    <t>TC_28</t>
+  </si>
+  <si>
+    <t>TC_29</t>
+  </si>
+  <si>
+    <t>TC_30</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>KB_2</t>
+  </si>
+  <si>
+    <t>KB_3</t>
+  </si>
+  <si>
+    <t>KB_4</t>
+  </si>
+  <si>
+    <t>KB_5</t>
+  </si>
+  <si>
+    <t>KB_6</t>
+  </si>
+  <si>
+    <t>KB_7</t>
+  </si>
+  <si>
+    <t>KB_8</t>
+  </si>
+  <si>
+    <t>KB_9</t>
+  </si>
+  <si>
+    <t>KB_10</t>
+  </si>
+  <si>
+    <t>KB_11</t>
+  </si>
+  <si>
+    <t>KB_12</t>
+  </si>
+  <si>
+    <t>KB_13</t>
+  </si>
+  <si>
+    <t>KB_14</t>
+  </si>
+  <si>
+    <t>KB_15</t>
+  </si>
+  <si>
+    <t>KB_16</t>
+  </si>
+  <si>
+    <t>KB_17</t>
+  </si>
+  <si>
+    <t>KB_18</t>
+  </si>
+  <si>
+    <t>KB_19</t>
+  </si>
+  <si>
+    <t>KB_20</t>
+  </si>
+  <si>
+    <t>KB_21</t>
+  </si>
+  <si>
+    <t>KB_22</t>
+  </si>
+  <si>
+    <t>KB_23</t>
+  </si>
+  <si>
+    <t>KB_24</t>
+  </si>
+  <si>
+    <t>KB_25</t>
+  </si>
+  <si>
+    <t>KB_26</t>
+  </si>
+  <si>
+    <t>KB_27</t>
+  </si>
+  <si>
+    <t>KB_28</t>
+  </si>
+  <si>
+    <t>KB_29</t>
+  </si>
+  <si>
+    <t>KB_30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-409]M/D/YYYY"/>
+<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2B579A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF2B579A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -345,135 +464,132 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="2">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF2B579A"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF2B579A"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="38">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="ConditionalFormatStyle" xfId="20"/>
+    <cellStyle name="HeaderStyle" xfId="21"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AA30"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr/>
+  <dimension ref="A1:AMG31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA11" activeCellId="0" sqref="AA11"/>
+    <sheetView defaultGridColor="0" colorId="64" view="normal" tabSelected="1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col min="1" max="1" width="11.4296875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.84765625" customWidth="1"/>
+    <col min="5" max="5" width="19.09765625" customWidth="1"/>
+    <col min="6" max="6" width="14.8203125" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="19.640625" customWidth="1"/>
+    <col min="9" max="9" width="21.0703125" customWidth="1"/>
+    <col min="10" max="10" width="30.70703125" customWidth="1"/>
+    <col min="11" max="11" width="18.20703125" customWidth="1"/>
+    <col min="12" max="12" width="20.1796875" customWidth="1"/>
+    <col min="13" max="1021" width="11.4296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:23" ht="24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,23 +656,9 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W1" s="5"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -566,19 +668,19 @@
       <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>123456</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="1" t="n">
+      <c r="F2" s="1">
+        <v>123456</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="1">
         <v>600</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -619,22 +721,10 @@
       <c r="V2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>28</v>
@@ -642,19 +732,19 @@
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>123456</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H3" s="1" t="n">
+      <c r="F3" s="1">
+        <v>123456</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="1">
         <v>600</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -697,54 +787,42 @@
       <c r="V3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>37</v>
+    </row>
+    <row r="4" spans="1:22" ht="67.5">
+      <c r="A4" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="7" t="n">
+      <c r="C4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="6">
         <v>123456</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="7" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H4" s="6" t="n">
+      <c r="F4" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="5">
         <v>600</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4" t="n">
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
         <v>2</v>
       </c>
       <c r="M4" s="4" t="s">
@@ -753,11 +831,11 @@
       <c r="N4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9" t="s">
+      <c r="O4" s="8"/>
+      <c r="P4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>41</v>
       </c>
       <c r="R4" s="3" t="s">
@@ -775,54 +853,42 @@
       <c r="V4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>43</v>
+    </row>
+    <row r="5" spans="1:22" ht="67.5">
+      <c r="A5" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="7" t="n">
+      <c r="C5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="6">
         <v>123456</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="7" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H5" s="6" t="n">
+      <c r="F5" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="5">
         <v>600</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4" t="n">
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
         <v>2</v>
       </c>
       <c r="M5" s="4" t="s">
@@ -831,11 +897,11 @@
       <c r="N5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9" t="s">
+      <c r="O5" s="8"/>
+      <c r="P5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="8" t="s">
         <v>41</v>
       </c>
       <c r="R5" s="3" t="s">
@@ -853,22 +919,10 @@
       <c r="V5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" spans="1:22" ht="24">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>28</v>
@@ -876,28 +930,28 @@
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>123456</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H6" s="1" t="n">
+      <c r="F6" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="1">
         <v>600</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="10" t="n">
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9">
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -909,13 +963,13 @@
       <c r="N6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="11" t="n">
+      <c r="O6" s="10">
         <v>45384</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="10" t="s">
         <v>41</v>
       </c>
       <c r="R6" s="3" t="s">
@@ -933,22 +987,10 @@
       <c r="V6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" spans="1:22" ht="48">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>28</v>
@@ -956,28 +998,28 @@
       <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2">
         <v>123456</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H7" s="1" t="n">
+      <c r="F7" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="1">
         <v>600</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="10" t="n">
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9">
         <v>1</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -989,16 +1031,16 @@
       <c r="N7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="11" t="n">
+      <c r="O7" s="10">
         <v>45384</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="12" t="n">
+      <c r="R7" s="11">
         <v>7709577438</v>
       </c>
       <c r="S7" s="3" t="s">
@@ -1013,22 +1055,10 @@
       <c r="V7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" spans="1:22" ht="48">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>28</v>
@@ -1036,28 +1066,28 @@
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2">
         <v>123456</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H8" s="1" t="n">
+      <c r="F8" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="1">
         <v>600</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="10" t="n">
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9">
         <v>1</v>
       </c>
       <c r="L8" s="3" t="s">
@@ -1069,16 +1099,16 @@
       <c r="N8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="11" t="n">
+      <c r="O8" s="10">
         <v>45384</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="12" t="n">
+      <c r="R8" s="11">
         <v>7709577438</v>
       </c>
       <c r="S8" s="3" t="s">
@@ -1093,54 +1123,42 @@
       <c r="V8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="49.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" spans="1:22" ht="67.5">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="7" t="n">
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6">
         <v>123456</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="7" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H9" s="1" t="n">
+      <c r="F9" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="1">
         <v>600</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="4" t="n">
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
         <v>2</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1149,11 +1167,11 @@
       <c r="N9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9" t="s">
+      <c r="O9" s="8"/>
+      <c r="P9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="8" t="s">
         <v>41</v>
       </c>
       <c r="R9" s="3" t="s">
@@ -1171,54 +1189,42 @@
       <c r="V9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" spans="1:23" ht="54">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="7" t="n">
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6">
         <v>123456</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="7" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="1" t="n">
+      <c r="F10" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="1">
         <v>600</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="4" t="n">
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
         <v>2</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1227,11 +1233,11 @@
       <c r="N10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9" t="s">
+      <c r="O10" s="8"/>
+      <c r="P10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="8" t="s">
         <v>41</v>
       </c>
       <c r="R10" s="3" t="s">
@@ -1249,25 +1255,11 @@
       <c r="V10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA10" s="0" t="n">
-        <v>9876543212</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W10"/>
+    </row>
+    <row r="11" spans="1:22" ht="48">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>28</v>
@@ -1275,28 +1267,28 @@
       <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2">
         <v>123456</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H11" s="1" t="n">
+      <c r="F11" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="1">
         <v>600</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="10" t="n">
+      <c r="J11" s="9">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9">
         <v>1</v>
       </c>
       <c r="L11" s="3" t="s">
@@ -1308,16 +1300,16 @@
       <c r="N11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="11" t="n">
+      <c r="O11" s="10">
         <v>45384</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R11" s="12" t="n">
+      <c r="R11" s="11">
         <v>7709577438</v>
       </c>
       <c r="S11" s="3" t="s">
@@ -1332,22 +1324,10 @@
       <c r="V11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" spans="1:22" ht="48">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>28</v>
@@ -1355,28 +1335,28 @@
       <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2">
         <v>123456</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H12" s="1" t="n">
+      <c r="F12" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="1">
         <v>600</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="10" t="n">
+      <c r="J12" s="9">
+        <v>1</v>
+      </c>
+      <c r="K12" s="9">
         <v>1</v>
       </c>
       <c r="L12" s="3" t="s">
@@ -1388,16 +1368,16 @@
       <c r="N12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="11" t="n">
+      <c r="O12" s="10">
         <v>45384</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R12" s="12" t="n">
+      <c r="R12" s="11">
         <v>7709577438</v>
       </c>
       <c r="S12" s="3" t="s">
@@ -1412,22 +1392,10 @@
       <c r="V12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" spans="1:22" ht="48">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>28</v>
@@ -1435,28 +1403,28 @@
       <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="2">
         <v>123456</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H13" s="1" t="n">
+      <c r="F13" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="1">
         <v>600</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="10" t="n">
+      <c r="J13" s="9">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9">
         <v>1</v>
       </c>
       <c r="L13" s="3" t="s">
@@ -1468,16 +1436,16 @@
       <c r="N13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="11" t="n">
+      <c r="O13" s="10">
         <v>45384</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R13" s="12" t="n">
+      <c r="R13" s="11">
         <v>7709577438</v>
       </c>
       <c r="S13" s="3" t="s">
@@ -1492,22 +1460,10 @@
       <c r="V13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" spans="1:22" ht="48">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
@@ -1515,28 +1471,28 @@
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="2">
         <v>123456</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H14" s="1" t="n">
+      <c r="F14" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="1">
         <v>600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="10" t="n">
+      <c r="J14" s="9">
+        <v>1</v>
+      </c>
+      <c r="K14" s="9">
         <v>1</v>
       </c>
       <c r="L14" s="3" t="s">
@@ -1548,16 +1504,16 @@
       <c r="N14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="11" t="n">
+      <c r="O14" s="10">
         <v>45384</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="Q14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="11">
         <v>7709577438</v>
       </c>
       <c r="S14" s="3" t="s">
@@ -1572,51 +1528,39 @@
       <c r="V14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" spans="1:22" ht="48">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="13" t="n">
+      <c r="C15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="12">
         <v>123456</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H15" s="1" t="n">
+      <c r="F15" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="1">
         <v>600</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="10" t="n">
+      <c r="J15" s="9">
+        <v>1</v>
+      </c>
+      <c r="K15" s="9">
         <v>1</v>
       </c>
       <c r="L15" s="3" t="s">
@@ -1628,16 +1572,16 @@
       <c r="N15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O15" s="11" t="n">
+      <c r="O15" s="10">
         <v>45384</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="P15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R15" s="12" t="n">
+      <c r="R15" s="11">
         <v>7709577438</v>
       </c>
       <c r="S15" s="3" t="s">
@@ -1652,42 +1596,30 @@
       <c r="V15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>62</v>
+    </row>
+    <row r="16" spans="1:22" ht="48">
+      <c r="A16" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="7" t="n">
+      <c r="C16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="6">
         <v>123456</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="7" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G16" s="4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H16" s="4" t="n">
+      <c r="F16" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="4">
         <v>600</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -1696,10 +1628,10 @@
       <c r="J16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="4" t="n">
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
         <v>1</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -1708,11 +1640,11 @@
       <c r="N16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9" t="s">
+      <c r="O16" s="8"/>
+      <c r="P16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="9" t="s">
+      <c r="Q16" s="8" t="s">
         <v>41</v>
       </c>
       <c r="R16" s="3" t="s">
@@ -1730,22 +1662,10 @@
       <c r="V16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z16" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" spans="1:22" ht="48">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>28</v>
@@ -1753,28 +1673,28 @@
       <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="2">
         <v>123456</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H17" s="1" t="n">
+      <c r="F17" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="1">
         <v>600</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="10" t="n">
+      <c r="J17" s="9">
+        <v>1</v>
+      </c>
+      <c r="K17" s="9">
         <v>1</v>
       </c>
       <c r="L17" s="3" t="s">
@@ -1786,16 +1706,16 @@
       <c r="N17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O17" s="11" t="n">
+      <c r="O17" s="10">
         <v>45384</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R17" s="12" t="n">
+      <c r="R17" s="11">
         <v>7709577438</v>
       </c>
       <c r="S17" s="3" t="s">
@@ -1810,22 +1730,10 @@
       <c r="V17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>67</v>
@@ -1833,28 +1741,28 @@
       <c r="C18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="14" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="1" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H18" s="1" t="n">
+      <c r="F18" s="1">
+        <v>123456</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="1">
         <v>600</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="10" t="s">
+      <c r="J18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L18" s="3" t="s">
@@ -1890,42 +1798,30 @@
       <c r="V18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" spans="1:22" ht="48">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="7" t="n">
+      <c r="C19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="6">
         <v>123456</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="7" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H19" s="1" t="n">
+      <c r="F19" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="1">
         <v>600</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -1934,10 +1830,10 @@
       <c r="J19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="4" t="n">
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4">
         <v>1</v>
       </c>
       <c r="M19" s="4" t="s">
@@ -1946,11 +1842,11 @@
       <c r="N19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9" t="s">
+      <c r="O19" s="8"/>
+      <c r="P19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="Q19" s="8" t="s">
         <v>41</v>
       </c>
       <c r="R19" s="3" t="s">
@@ -1966,22 +1862,10 @@
       <c r="V19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>28</v>
@@ -1989,28 +1873,28 @@
       <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="1">
         <v>123456</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="1" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H20" s="1" t="n">
+      <c r="F20" s="1">
+        <v>123456</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="1">
         <v>600</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="10" t="s">
+      <c r="J20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="3" t="s">
@@ -2046,22 +1930,10 @@
       <c r="V20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>28</v>
@@ -2069,28 +1941,28 @@
       <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="1">
         <v>123456</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="1" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H21" s="1" t="n">
+      <c r="F21" s="1">
+        <v>123456</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="1">
         <v>600</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="10" t="s">
+      <c r="J21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L21" s="3" t="s">
@@ -2102,7 +1974,7 @@
       <c r="N21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O21" s="15" t="n">
+      <c r="O21" s="14">
         <v>45384</v>
       </c>
       <c r="P21" s="1" t="s">
@@ -2117,7 +1989,7 @@
       <c r="S21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T21" s="3" t="n">
+      <c r="T21" s="3">
         <v>300</v>
       </c>
       <c r="U21" s="1" t="s">
@@ -2126,22 +1998,10 @@
       <c r="V21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" spans="1:22" ht="48">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>28</v>
@@ -2149,28 +2009,28 @@
       <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="2">
         <v>123456</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H22" s="1" t="n">
+      <c r="F22" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="1">
         <v>600</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="10" t="n">
+      <c r="J22" s="9">
+        <v>1</v>
+      </c>
+      <c r="K22" s="9">
         <v>1</v>
       </c>
       <c r="L22" s="3" t="s">
@@ -2182,16 +2042,16 @@
       <c r="N22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O22" s="11" t="n">
+      <c r="O22" s="10">
         <v>45384</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q22" s="11" t="s">
+      <c r="Q22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R22" s="12" t="n">
+      <c r="R22" s="11">
         <v>7709577438</v>
       </c>
       <c r="S22" s="3" t="s">
@@ -2206,22 +2066,10 @@
       <c r="V22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" spans="1:22" ht="48">
       <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>28</v>
@@ -2229,28 +2077,28 @@
       <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="2">
         <v>123456</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H23" s="1" t="n">
+      <c r="F23" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="1">
         <v>600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="10" t="n">
+      <c r="J23" s="9">
+        <v>1</v>
+      </c>
+      <c r="K23" s="9">
         <v>1</v>
       </c>
       <c r="L23" s="3" t="s">
@@ -2262,16 +2110,16 @@
       <c r="N23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O23" s="11" t="n">
+      <c r="O23" s="10">
         <v>45384</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="P23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q23" s="11" t="s">
+      <c r="Q23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R23" s="12" t="n">
+      <c r="R23" s="11">
         <v>7709577438</v>
       </c>
       <c r="S23" s="3" t="s">
@@ -2286,22 +2134,10 @@
       <c r="V23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" spans="1:22" ht="48">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>28</v>
@@ -2309,28 +2145,28 @@
       <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="2">
         <v>123456</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H24" s="1" t="n">
+      <c r="F24" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="1">
         <v>600</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="10" t="n">
+      <c r="J24" s="9">
+        <v>1</v>
+      </c>
+      <c r="K24" s="9">
         <v>1</v>
       </c>
       <c r="L24" s="3" t="s">
@@ -2342,16 +2178,16 @@
       <c r="N24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O24" s="11" t="n">
+      <c r="O24" s="10">
         <v>45384</v>
       </c>
-      <c r="P24" s="11" t="s">
+      <c r="P24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q24" s="11" t="s">
+      <c r="Q24" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R24" s="12" t="n">
+      <c r="R24" s="11">
         <v>7709577438</v>
       </c>
       <c r="S24" s="3" t="s">
@@ -2366,22 +2202,10 @@
       <c r="V24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" spans="1:22" ht="48">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>28</v>
@@ -2389,28 +2213,28 @@
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="2">
         <v>123456</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H25" s="1" t="n">
+      <c r="F25" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="1">
         <v>600</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J25" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="10" t="n">
+      <c r="J25" s="9">
+        <v>1</v>
+      </c>
+      <c r="K25" s="9">
         <v>1</v>
       </c>
       <c r="L25" s="3" t="s">
@@ -2422,16 +2246,16 @@
       <c r="N25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="11" t="n">
+      <c r="O25" s="10">
         <v>45384</v>
       </c>
-      <c r="P25" s="11" t="s">
+      <c r="P25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="Q25" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R25" s="12" t="n">
+      <c r="R25" s="11">
         <v>7709577438</v>
       </c>
       <c r="S25" s="3" t="s">
@@ -2446,22 +2270,10 @@
       <c r="V25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" spans="1:22" ht="48">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>28</v>
@@ -2469,28 +2281,28 @@
       <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="2">
         <v>123456</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H26" s="1" t="n">
+      <c r="F26" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="1">
         <v>600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="10" t="n">
+      <c r="J26" s="9">
+        <v>1</v>
+      </c>
+      <c r="K26" s="9">
         <v>1</v>
       </c>
       <c r="L26" s="3" t="s">
@@ -2502,16 +2314,16 @@
       <c r="N26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O26" s="11" t="n">
+      <c r="O26" s="10">
         <v>45384</v>
       </c>
-      <c r="P26" s="11" t="s">
+      <c r="P26" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q26" s="11" t="s">
+      <c r="Q26" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R26" s="12" t="n">
+      <c r="R26" s="11">
         <v>7709577438</v>
       </c>
       <c r="S26" s="3" t="s">
@@ -2526,22 +2338,10 @@
       <c r="V26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z26" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" spans="1:22" ht="48">
       <c r="A27" s="1" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>28</v>
@@ -2549,28 +2349,28 @@
       <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="2">
         <v>123456</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H27" s="1" t="n">
+      <c r="F27" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="1">
         <v>600</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="10" t="n">
+      <c r="J27" s="9">
+        <v>1</v>
+      </c>
+      <c r="K27" s="9">
         <v>1</v>
       </c>
       <c r="L27" s="3" t="s">
@@ -2582,16 +2382,16 @@
       <c r="N27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O27" s="11" t="n">
+      <c r="O27" s="10">
         <v>45384</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="P27" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q27" s="11" t="s">
+      <c r="Q27" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R27" s="12" t="n">
+      <c r="R27" s="11">
         <v>7709577438</v>
       </c>
       <c r="S27" s="3" t="s">
@@ -2606,22 +2406,10 @@
       <c r="V27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z27" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" spans="1:22" ht="48">
       <c r="A28" s="1" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>28</v>
@@ -2629,28 +2417,28 @@
       <c r="C28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="2">
         <v>123456</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G28" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H28" s="1" t="n">
+      <c r="F28" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="1">
         <v>600</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="10" t="n">
+      <c r="J28" s="9">
+        <v>1</v>
+      </c>
+      <c r="K28" s="9">
         <v>1</v>
       </c>
       <c r="L28" s="3" t="s">
@@ -2662,16 +2450,16 @@
       <c r="N28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O28" s="11" t="n">
+      <c r="O28" s="10">
         <v>45384</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="P28" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q28" s="11" t="s">
+      <c r="Q28" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R28" s="12" t="n">
+      <c r="R28" s="11">
         <v>7709577438</v>
       </c>
       <c r="S28" s="3" t="s">
@@ -2686,22 +2474,10 @@
       <c r="V28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" spans="1:22" ht="48">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>28</v>
@@ -2709,28 +2485,28 @@
       <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="2">
         <v>123456</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G29" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H29" s="1" t="n">
+      <c r="F29" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H29" s="1">
         <v>600</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="10" t="n">
+      <c r="J29" s="9">
+        <v>1</v>
+      </c>
+      <c r="K29" s="9">
         <v>1</v>
       </c>
       <c r="L29" s="3" t="s">
@@ -2742,16 +2518,16 @@
       <c r="N29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O29" s="11" t="n">
+      <c r="O29" s="10">
         <v>45384</v>
       </c>
-      <c r="P29" s="11" t="s">
+      <c r="P29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q29" s="11" t="s">
+      <c r="Q29" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R29" s="12" t="n">
+      <c r="R29" s="11">
         <v>7709577438</v>
       </c>
       <c r="S29" s="3" t="s">
@@ -2766,22 +2542,10 @@
       <c r="V29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z29" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" spans="1:22" ht="48">
       <c r="A30" s="1" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>28</v>
@@ -2789,28 +2553,28 @@
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="2">
         <v>123456</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G30" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H30" s="1" t="n">
+      <c r="F30" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H30" s="1">
         <v>600</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J30" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="10" t="n">
+      <c r="J30" s="9">
+        <v>1</v>
+      </c>
+      <c r="K30" s="9">
         <v>1</v>
       </c>
       <c r="L30" s="3" t="s">
@@ -2822,16 +2586,16 @@
       <c r="N30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O30" s="11" t="n">
+      <c r="O30" s="10">
         <v>45384</v>
       </c>
-      <c r="P30" s="11" t="s">
+      <c r="P30" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q30" s="11" t="s">
+      <c r="Q30" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R30" s="12" t="n">
+      <c r="R30" s="11">
         <v>7709577438</v>
       </c>
       <c r="S30" s="3" t="s">
@@ -2846,24 +2610,80 @@
       <c r="V30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:22" ht="48">
+      <c r="A31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="1">
+        <v>600</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="9">
+        <v>1</v>
+      </c>
+      <c r="K31" s="9">
+        <v>1</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O31" s="10">
+        <v>45384</v>
+      </c>
+      <c r="P31" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="R31" s="11">
+        <v>7709577438</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V31" s="1" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter scaleWithDoc="1" alignWithMargins="1" differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/TestData/Web_POS/Billing/keyboard_shortcut_test_data.xlsx
+++ b/TestData/Web_POS/Billing/keyboard_shortcut_test_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115" count="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116" count="492">
   <si>
     <t>TC_Id</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>KB_30</t>
+  </si>
+  <si>
+    <t>Return</t>
   </si>
 </sst>
 </file>
@@ -389,12 +392,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -460,14 +465,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFE7E7E7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE7E7E7"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -513,10 +518,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -545,8 +550,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
@@ -566,7 +571,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="A1:AMG31"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="64" view="normal" tabSelected="1" workbookViewId="0">
       <selection pane="topLeft" activeCell="AA11" sqref="AA11"/>
@@ -719,7 +724,7 @@
         <v>32</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -1727,8 +1732,8 @@
       <c r="U17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>32</v>
+      <c r="V17" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1796,7 +1801,7 @@
         <v>69</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="48">
@@ -1860,7 +1865,7 @@
         <v>32</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1928,7 +1933,7 @@
         <v>32</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1996,7 +2001,7 @@
         <v>32</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="48">
@@ -2064,7 +2069,7 @@
         <v>32</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="48">
@@ -2132,7 +2137,7 @@
         <v>32</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="48">
@@ -2200,7 +2205,7 @@
         <v>32</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="48">
@@ -2268,7 +2273,7 @@
         <v>32</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="48">
@@ -2336,7 +2341,7 @@
         <v>32</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="48">
@@ -2404,7 +2409,7 @@
         <v>32</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="48">
@@ -2472,7 +2477,7 @@
         <v>32</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="48">
@@ -2540,7 +2545,7 @@
         <v>32</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="48">
@@ -2608,7 +2613,7 @@
         <v>32</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="48">
@@ -2676,7 +2681,7 @@
         <v>32</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Web_POS/Billing/keyboard_shortcut_test_data.xlsx
+++ b/TestData/Web_POS/Billing/keyboard_shortcut_test_data.xlsx
@@ -60,6 +60,9 @@
     <t>buy_items</t>
   </si>
   <si>
+    <t>get_items</t>
+  </si>
+  <si>
     <t>dob</t>
   </si>
   <si>
@@ -87,6 +90,9 @@
     <t>shortcut_key</t>
   </si>
   <si>
+    <t>group</t>
+  </si>
+  <si>
     <t>KB_1</t>
   </si>
   <si>
@@ -138,6 +144,9 @@
     <t>KB_4</t>
   </si>
   <si>
+    <t>CTRL+1</t>
+  </si>
+  <si>
     <t>KB_5</t>
   </si>
   <si>
@@ -147,39 +156,78 @@
     <t>Amount : 10</t>
   </si>
   <si>
+    <t>CTRL+2</t>
+  </si>
+  <si>
     <t>KB_6</t>
   </si>
   <si>
     <t>cash : 100, paytm : 100, voucher : 0</t>
   </si>
   <si>
+    <t>CTRL+3</t>
+  </si>
+  <si>
     <t>KB_7</t>
   </si>
   <si>
+    <t>CTRL+5</t>
+  </si>
+  <si>
     <t>KB_8</t>
   </si>
   <si>
+    <t>Carry Bag Latest : 1</t>
+  </si>
+  <si>
+    <t>CTRL+6</t>
+  </si>
+  <si>
     <t>KB_9</t>
   </si>
   <si>
     <t>QBSB-Specificqty-Flat-rupees</t>
   </si>
   <si>
+    <t>CTRL+a</t>
+  </si>
+  <si>
     <t>KB_10</t>
   </si>
   <si>
     <t>KB_11</t>
   </si>
   <si>
+    <t>CTRL+x</t>
+  </si>
+  <si>
     <t>KB_12</t>
   </si>
   <si>
+    <t>CTRL+b</t>
+  </si>
+  <si>
     <t>KB_13</t>
   </si>
   <si>
+    <t>307260624Wa9</t>
+  </si>
+  <si>
+    <t>userone_p10</t>
+  </si>
+  <si>
+    <t>Dummy</t>
+  </si>
+  <si>
     <t>KB_14</t>
   </si>
   <si>
+    <t>307260624dq3</t>
+  </si>
+  <si>
+    <t>userone_p9</t>
+  </si>
+  <si>
     <t>KB_15</t>
   </si>
   <si>
@@ -192,19 +240,22 @@
     <t>Order</t>
   </si>
   <si>
+    <t>CTRL+s</t>
+  </si>
+  <si>
     <t>KB_17</t>
   </si>
   <si>
-    <t>MrunalJagtap</t>
-  </si>
-  <si>
-    <t>Rudraksha : 2, Carry bag : 1</t>
+    <t>CTRL+G</t>
   </si>
   <si>
     <t>KB_18</t>
   </si>
   <si>
     <t>QBSB-Specificity-Flat-fixed-all</t>
+  </si>
+  <si>
+    <t>CTRL+ALT+R</t>
   </si>
   <si>
     <t>KB_19</t>
@@ -663,8 +714,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="J1">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="K16">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -682,7 +733,12 @@
     <col min="11" max="11" width="18.20703" customWidth="1"/>
     <col min="12" max="12" width="20.17969" customWidth="1"/>
     <col min="13" max="13" width="21.85547" customWidth="1"/>
-    <col min="14" max="1020" width="11.42969" customWidth="1"/>
+    <col min="14" max="14" width="21.85547" customWidth="1"/>
+    <col min="15" max="20" width="11.42969" customWidth="1"/>
+    <col min="21" max="21" width="20.71094" customWidth="1"/>
+    <col min="22" max="22" width="11.42969" customWidth="1"/>
+    <col min="23" max="23" width="14.28516" customWidth="1"/>
+    <col min="24" max="1021" width="11.42969" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5">
@@ -734,7 +790,7 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
@@ -743,31 +799,37 @@
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1">
         <v>123456</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1">
         <v>123456</v>
@@ -779,61 +841,64 @@
         <v>600</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="3"/>
       <c r="S2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V2" t="s">
-        <v>30</v>
+      <c r="V2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1">
         <v>123456</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>123456</v>
@@ -845,61 +910,64 @@
         <v>600</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="3"/>
       <c r="S3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="28.5">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5">
         <v>123456</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5">
         <v>123456</v>
@@ -911,10 +979,10 @@
         <v>600</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K4" s="6">
         <v>1</v>
@@ -923,49 +991,52 @@
         <v>2</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="8"/>
       <c r="P4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V4" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="28.5">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="5">
         <v>123456</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="5">
         <v>123456</v>
@@ -977,10 +1048,10 @@
         <v>600</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K5" s="6">
         <v>1</v>
@@ -989,46 +1060,52 @@
         <v>2</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="8"/>
       <c r="P5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" ht="38.25">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2">
         <v>123456</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2">
         <v>123456</v>
@@ -1040,7 +1117,7 @@
         <v>600</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J6" s="9">
         <v>1</v>
@@ -1049,51 +1126,57 @@
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="10">
+        <v>30</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="10">
         <v>45384</v>
       </c>
-      <c r="O6" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="P6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" ht="25.5">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2">
         <v>123456</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2">
         <v>123456</v>
@@ -1105,7 +1188,7 @@
         <v>600</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J7" s="9">
         <v>1</v>
@@ -1114,51 +1197,57 @@
         <v>1</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="10">
+        <v>30</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="10">
         <v>45384</v>
       </c>
-      <c r="O7" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="P7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="11">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" s="11">
         <v>7709577438</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="S7" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" ht="25.5">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2">
         <v>123456</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2">
         <v>123456</v>
@@ -1170,7 +1259,7 @@
         <v>600</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J8" s="9">
         <v>1</v>
@@ -1179,51 +1268,57 @@
         <v>1</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="10">
+        <v>30</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="10">
         <v>45384</v>
       </c>
-      <c r="O8" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="P8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="11">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="11">
         <v>7709577438</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="S8" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" ht="28.5">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5">
         <v>123456</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="5">
         <v>123456</v>
@@ -1235,10 +1330,10 @@
         <v>600</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K9" s="6">
         <v>1</v>
@@ -1247,46 +1342,52 @@
         <v>2</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="8"/>
       <c r="P9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="11">
+        <v>7709577438</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>27</v>
+        <v>52</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="5">
         <v>123456</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" s="5">
         <v>123456</v>
@@ -1298,10 +1399,10 @@
         <v>600</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K10" s="6">
         <v>1</v>
@@ -1310,46 +1411,52 @@
         <v>2</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="8"/>
       <c r="P10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="11">
+        <v>7709577438</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" ht="25.5">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2">
         <v>123456</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2">
         <v>123456</v>
@@ -1361,7 +1468,7 @@
         <v>600</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J11" s="9">
         <v>1</v>
@@ -1370,51 +1477,57 @@
         <v>1</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" s="10">
+        <v>30</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="10">
         <v>45384</v>
       </c>
-      <c r="O11" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="P11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q11" s="11">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" s="11">
         <v>7709577438</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="S11" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" ht="25.5">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2">
         <v>123456</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2">
         <v>123456</v>
@@ -1426,7 +1539,7 @@
         <v>600</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J12" s="9">
         <v>1</v>
@@ -1435,51 +1548,57 @@
         <v>1</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" s="10">
+        <v>30</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="10">
         <v>45384</v>
       </c>
-      <c r="O12" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="P12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q12" s="11">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R12" s="11">
         <v>7709577438</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="S12" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" ht="25.5">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2">
         <v>123456</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2">
         <v>123456</v>
@@ -1491,7 +1610,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J13" s="9">
         <v>1</v>
@@ -1500,51 +1619,57 @@
         <v>1</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" s="10">
+        <v>30</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="10">
         <v>45384</v>
       </c>
-      <c r="O13" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="P13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q13" s="11">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R13" s="11">
         <v>7709577438</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="S13" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" ht="25.5">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
         <v>123456</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="F14" s="2">
         <v>123456</v>
@@ -1556,7 +1681,7 @@
         <v>600</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J14" s="9">
         <v>1</v>
@@ -1565,51 +1690,60 @@
         <v>1</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" s="10">
+        <v>30</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="10">
         <v>45384</v>
       </c>
-      <c r="O14" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="P14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q14" s="11">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R14" s="11">
         <v>7709577438</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="S14" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W14" t="s">
+        <v>61</v>
+      </c>
+      <c r="X14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" ht="25.5">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" s="12">
         <v>123456</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="F15" s="2">
         <v>123456</v>
@@ -1621,7 +1755,7 @@
         <v>600</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J15" s="9">
         <v>1</v>
@@ -1630,51 +1764,57 @@
         <v>1</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="10">
+        <v>30</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="10">
         <v>45384</v>
       </c>
-      <c r="O15" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="P15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q15" s="11">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R15" s="11">
         <v>7709577438</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="S15" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" s="5">
         <v>123456</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F16" s="5">
         <v>123456</v>
@@ -1683,13 +1823,13 @@
         <v>1000</v>
       </c>
       <c r="H16" s="6">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="K16" s="6">
         <v>1</v>
@@ -1698,46 +1838,52 @@
         <v>1</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="8"/>
       <c r="P16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R16" s="11">
+        <v>7709577438</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" ht="38.25">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2">
         <v>123456</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F17" s="2">
         <v>123456</v>
@@ -1749,7 +1895,7 @@
         <v>600</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J17" s="9">
         <v>1</v>
@@ -1758,51 +1904,57 @@
         <v>1</v>
       </c>
       <c r="L17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="10">
+        <v>45384</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R17" s="11">
+        <v>7709577438</v>
+      </c>
+      <c r="S17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" s="10">
-        <v>45384</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q17" s="11">
-        <v>7709577438</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="T17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" s="13">
         <v>123456</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>58</v>
+      <c r="E18" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="F18" s="1">
         <v>123456</v>
@@ -1814,60 +1966,66 @@
         <v>600</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18" s="11">
+        <v>7709577438</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19" s="5">
         <v>123456</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F19" s="5">
         <v>123456</v>
@@ -1879,10 +2037,10 @@
         <v>600</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="K19" s="6">
         <v>1</v>
@@ -1891,44 +2049,50 @@
         <v>1</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="8"/>
       <c r="P19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R19" s="11">
+        <v>7709577438</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1">
         <v>123456</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F20" s="1">
         <v>123456</v>
@@ -1940,60 +2104,66 @@
         <v>600</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R20" s="11">
+        <v>7709577438</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1">
         <v>123456</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F21" s="1">
         <v>123456</v>
@@ -2005,60 +2175,66 @@
         <v>600</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" s="14">
+        <v>30</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="14">
         <v>45384</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="P21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S21" s="3">
+        <v>37</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R21" s="11">
+        <v>7709577438</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="U21" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W21" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="22" ht="25.5">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D22" s="2">
         <v>123456</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F22" s="2">
         <v>123456</v>
@@ -2070,7 +2246,7 @@
         <v>600</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J22" s="9">
         <v>1</v>
@@ -2079,51 +2255,57 @@
         <v>1</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N22" s="10">
+        <v>30</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="10">
         <v>45384</v>
       </c>
-      <c r="O22" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="P22" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q22" s="11">
+        <v>37</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R22" s="11">
         <v>7709577438</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="S22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W22" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" ht="25.5">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D23" s="2">
         <v>123456</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F23" s="2">
         <v>123456</v>
@@ -2135,7 +2317,7 @@
         <v>600</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J23" s="9">
         <v>1</v>
@@ -2144,51 +2326,57 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" s="10">
+        <v>30</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="10">
         <v>45384</v>
       </c>
-      <c r="O23" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="P23" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q23" s="11">
+        <v>37</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R23" s="11">
         <v>7709577438</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="S23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="U23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" ht="25.5">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2">
         <v>123456</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F24" s="2">
         <v>123456</v>
@@ -2200,7 +2388,7 @@
         <v>600</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J24" s="9">
         <v>1</v>
@@ -2209,51 +2397,57 @@
         <v>1</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" s="10">
+        <v>30</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="10">
         <v>45384</v>
       </c>
-      <c r="O24" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="P24" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" s="11">
+        <v>37</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R24" s="11">
         <v>7709577438</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="S24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="U24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" ht="25.5">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D25" s="2">
         <v>123456</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F25" s="2">
         <v>123456</v>
@@ -2265,7 +2459,7 @@
         <v>600</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J25" s="9">
         <v>1</v>
@@ -2274,51 +2468,54 @@
         <v>1</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N25" s="10">
+        <v>30</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" s="10">
         <v>45384</v>
       </c>
-      <c r="O25" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="P25" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q25" s="11">
+        <v>37</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R25" s="11">
         <v>7709577438</v>
       </c>
-      <c r="R25" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="S25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" ht="25.5">
       <c r="A26" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D26" s="2">
         <v>123456</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F26" s="2">
         <v>123456</v>
@@ -2330,7 +2527,7 @@
         <v>600</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J26" s="9">
         <v>1</v>
@@ -2339,51 +2536,54 @@
         <v>1</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N26" s="10">
+        <v>30</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" s="10">
         <v>45384</v>
       </c>
-      <c r="O26" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="P26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q26" s="11">
+        <v>37</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R26" s="11">
         <v>7709577438</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="S26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="27" ht="25.5">
       <c r="A27" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2">
         <v>123456</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F27" s="2">
         <v>123456</v>
@@ -2395,7 +2595,7 @@
         <v>600</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J27" s="9">
         <v>1</v>
@@ -2404,51 +2604,54 @@
         <v>1</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N27" s="10">
+        <v>30</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" s="10">
         <v>45384</v>
       </c>
-      <c r="O27" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="P27" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="11">
+        <v>37</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R27" s="11">
         <v>7709577438</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="S27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" ht="25.5">
       <c r="A28" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D28" s="2">
         <v>123456</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F28" s="2">
         <v>123456</v>
@@ -2460,7 +2663,7 @@
         <v>600</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J28" s="9">
         <v>1</v>
@@ -2469,51 +2672,54 @@
         <v>1</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N28" s="10">
+        <v>30</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" s="10">
         <v>45384</v>
       </c>
-      <c r="O28" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="P28" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q28" s="11">
+        <v>37</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R28" s="11">
         <v>7709577438</v>
       </c>
-      <c r="R28" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="S28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" ht="25.5">
       <c r="A29" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D29" s="2">
         <v>123456</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F29" s="2">
         <v>123456</v>
@@ -2525,7 +2731,7 @@
         <v>600</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J29" s="9">
         <v>1</v>
@@ -2534,51 +2740,54 @@
         <v>1</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N29" s="10">
+        <v>30</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" s="10">
         <v>45384</v>
       </c>
-      <c r="O29" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="P29" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q29" s="11">
+        <v>37</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R29" s="11">
         <v>7709577438</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="S29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" ht="25.5">
       <c r="A30" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D30" s="2">
         <v>123456</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F30" s="2">
         <v>123456</v>
@@ -2590,7 +2799,7 @@
         <v>600</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J30" s="9">
         <v>1</v>
@@ -2599,51 +2808,54 @@
         <v>1</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N30" s="10">
+        <v>30</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" s="10">
         <v>45384</v>
       </c>
-      <c r="O30" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="P30" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q30" s="11">
+        <v>37</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R30" s="11">
         <v>7709577438</v>
       </c>
-      <c r="R30" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="S30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>73</v>
+        <v>29</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="31" ht="25.5">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2">
         <v>123456</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F31" s="2">
         <v>123456</v>
@@ -2655,7 +2867,7 @@
         <v>600</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J31" s="9">
         <v>1</v>
@@ -2664,34 +2876,37 @@
         <v>1</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N31" s="10">
+        <v>30</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" s="10">
         <v>45384</v>
       </c>
-      <c r="O31" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="P31" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q31" s="11">
+        <v>37</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R31" s="11">
         <v>7709577438</v>
       </c>
-      <c r="R31" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="S31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>73</v>
+        <v>29</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Web_POS/Billing/keyboard_shortcut_test_data.xlsx
+++ b/TestData/Web_POS/Billing/keyboard_shortcut_test_data.xlsx
@@ -714,8 +714,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="K16">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="M16">
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2500,6 +2500,9 @@
       <c r="V25" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="W25" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="26" ht="25.5">
       <c r="A26" s="1" t="s">
@@ -2568,6 +2571,9 @@
       <c r="V26" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="W26" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="27" ht="25.5">
       <c r="A27" s="1" t="s">
@@ -2636,6 +2642,9 @@
       <c r="V27" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="W27" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="28" ht="25.5">
       <c r="A28" s="1" t="s">
@@ -2704,6 +2713,9 @@
       <c r="V28" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="W28" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="29" ht="25.5">
       <c r="A29" s="1" t="s">
@@ -2772,6 +2784,9 @@
       <c r="V29" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="W29" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="30" ht="25.5">
       <c r="A30" s="1" t="s">
@@ -2840,6 +2855,9 @@
       <c r="V30" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="W30" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="31" ht="25.5">
       <c r="A31" s="1" t="s">
@@ -2907,6 +2925,9 @@
       </c>
       <c r="V31" s="1" t="s">
         <v>90</v>
+      </c>
+      <c r="W31" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Web_POS/Billing/keyboard_shortcut_test_data.xlsx
+++ b/TestData/Web_POS/Billing/keyboard_shortcut_test_data.xlsx
@@ -144,6 +144,12 @@
     <t>KB_4</t>
   </si>
   <si>
+    <t>307260624buU</t>
+  </si>
+  <si>
+    <t>userone_p9</t>
+  </si>
+  <si>
     <t>CTRL+1</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t>KB_10</t>
   </si>
   <si>
+    <t>Dummy</t>
+  </si>
+  <si>
     <t>KB_11</t>
   </si>
   <si>
@@ -216,16 +225,10 @@
     <t>userone_p10</t>
   </si>
   <si>
-    <t>Dummy</t>
-  </si>
-  <si>
     <t>KB_14</t>
   </si>
   <si>
     <t>307260624dq3</t>
-  </si>
-  <si>
-    <t>userone_p9</t>
   </si>
   <si>
     <t>KB_15</t>
@@ -714,8 +717,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="M16">
-      <selection activeCell="Y30" sqref="Y30"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="K1">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1027,7 +1030,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>26</v>
@@ -1036,7 +1039,7 @@
         <v>123456</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F5" s="5">
         <v>123456</v>
@@ -1088,12 +1091,12 @@
         <v>29</v>
       </c>
       <c r="W5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" ht="38.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>25</v>
@@ -1147,10 +1150,10 @@
         <v>31</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U6" s="3" t="s">
         <v>29</v>
@@ -1159,12 +1162,12 @@
         <v>29</v>
       </c>
       <c r="W6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" ht="25.5">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>25</v>
@@ -1197,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>30</v>
@@ -1230,12 +1233,12 @@
         <v>29</v>
       </c>
       <c r="W7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" ht="25.5">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>25</v>
@@ -1268,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>30</v>
@@ -1301,12 +1304,12 @@
         <v>29</v>
       </c>
       <c r="W8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" ht="28.5">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>25</v>
@@ -1364,18 +1367,18 @@
         <v>29</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="W9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>25</v>
@@ -1402,7 +1405,7 @@
         <v>28</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K10" s="6">
         <v>1</v>
@@ -1439,12 +1442,12 @@
         <v>29</v>
       </c>
       <c r="W10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" ht="25.5">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
@@ -1477,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>30</v>
@@ -1510,12 +1513,15 @@
         <v>29</v>
       </c>
       <c r="W11" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="X11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" ht="25.5">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -1548,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>30</v>
@@ -1581,12 +1587,12 @@
         <v>29</v>
       </c>
       <c r="W12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" ht="25.5">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>25</v>
@@ -1619,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>30</v>
@@ -1652,15 +1658,15 @@
         <v>29</v>
       </c>
       <c r="W13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" ht="25.5">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>26</v>
@@ -1669,7 +1675,7 @@
         <v>123456</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F14" s="2">
         <v>123456</v>
@@ -1690,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>30</v>
@@ -1723,18 +1729,18 @@
         <v>29</v>
       </c>
       <c r="W14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="X14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" ht="25.5">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>26</v>
@@ -1743,7 +1749,7 @@
         <v>123456</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2">
         <v>123456</v>
@@ -1764,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>30</v>
@@ -1797,12 +1803,12 @@
         <v>29</v>
       </c>
       <c r="W15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>25</v>
@@ -1829,7 +1835,7 @@
         <v>28</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K16" s="6">
         <v>1</v>
@@ -1866,12 +1872,12 @@
         <v>29</v>
       </c>
       <c r="W16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" ht="38.25">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>25</v>
@@ -1904,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>30</v>
@@ -1925,24 +1931,24 @@
         <v>7709577438</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>29</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>25</v>
@@ -2005,15 +2011,15 @@
         <v>29</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>25</v>
@@ -2040,7 +2046,7 @@
         <v>28</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K19" s="6">
         <v>1</v>
@@ -2072,18 +2078,18 @@
         <v>29</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>26</v>
@@ -2092,7 +2098,7 @@
         <v>123456</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F20" s="1">
         <v>123456</v>
@@ -2143,15 +2149,15 @@
         <v>29</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>25</v>
@@ -2214,15 +2220,15 @@
         <v>29</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" ht="25.5">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>25</v>
@@ -2255,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>30</v>
@@ -2282,18 +2288,18 @@
         <v>29</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" ht="25.5">
       <c r="A23" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>25</v>
@@ -2326,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>30</v>
@@ -2356,15 +2362,15 @@
         <v>29</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" ht="25.5">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>25</v>
@@ -2397,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>30</v>
@@ -2427,15 +2433,15 @@
         <v>29</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" ht="25.5">
       <c r="A25" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>25</v>
@@ -2468,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>30</v>
@@ -2498,15 +2504,15 @@
         <v>29</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" ht="25.5">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
@@ -2539,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>30</v>
@@ -2569,15 +2575,15 @@
         <v>29</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" ht="25.5">
       <c r="A27" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>25</v>
@@ -2610,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>30</v>
@@ -2640,15 +2646,15 @@
         <v>29</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" ht="25.5">
       <c r="A28" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>25</v>
@@ -2681,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>30</v>
@@ -2711,15 +2717,15 @@
         <v>29</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" ht="25.5">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>25</v>
@@ -2752,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>30</v>
@@ -2782,15 +2788,15 @@
         <v>29</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" ht="25.5">
       <c r="A30" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>25</v>
@@ -2823,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>30</v>
@@ -2853,15 +2859,15 @@
         <v>29</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" ht="25.5">
       <c r="A31" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>25</v>
@@ -2894,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>30</v>
@@ -2924,7 +2930,7 @@
         <v>29</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W31" t="s">
         <v>34</v>

--- a/TestData/Web_POS/Billing/keyboard_shortcut_test_data.xlsx
+++ b/TestData/Web_POS/Billing/keyboard_shortcut_test_data.xlsx
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>tax_invoice</t>
   </si>
   <si>
     <t>KB_1</t>
@@ -717,8 +720,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="K1">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0" topLeftCell="O1">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -817,22 +820,25 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1">
         <v>123456</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1">
         <v>123456</v>
@@ -844,64 +850,64 @@
         <v>600</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1">
         <v>123456</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1">
         <v>123456</v>
@@ -913,64 +919,64 @@
         <v>600</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="28.5">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="5">
         <v>123456</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="5">
         <v>123456</v>
@@ -982,10 +988,10 @@
         <v>600</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4" s="6">
         <v>1</v>
@@ -994,52 +1000,52 @@
         <v>2</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4" s="8"/>
       <c r="P4" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" ht="28.5">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5">
         <v>123456</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" s="5">
         <v>123456</v>
@@ -1051,10 +1057,10 @@
         <v>600</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5" s="6">
         <v>1</v>
@@ -1063,52 +1069,52 @@
         <v>2</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" ht="38.25">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>123456</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2">
         <v>123456</v>
@@ -1120,7 +1126,7 @@
         <v>600</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" s="9">
         <v>1</v>
@@ -1129,57 +1135,57 @@
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="N6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O6" s="10">
         <v>45384</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" ht="25.5">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>123456</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2">
         <v>123456</v>
@@ -1191,7 +1197,7 @@
         <v>600</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J7" s="9">
         <v>1</v>
@@ -1200,57 +1206,57 @@
         <v>1</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O7" s="10">
         <v>45384</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R7" s="11">
         <v>7709577438</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" ht="25.5">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>123456</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2">
         <v>123456</v>
@@ -1262,7 +1268,7 @@
         <v>600</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J8" s="9">
         <v>1</v>
@@ -1271,57 +1277,57 @@
         <v>1</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O8" s="10">
         <v>45384</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R8" s="11">
         <v>7709577438</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" ht="28.5">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="5">
         <v>123456</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="5">
         <v>123456</v>
@@ -1333,10 +1339,10 @@
         <v>600</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K9" s="6">
         <v>1</v>
@@ -1345,52 +1351,52 @@
         <v>2</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R9" s="11">
         <v>7709577438</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="5">
         <v>123456</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" s="5">
         <v>123456</v>
@@ -1402,10 +1408,10 @@
         <v>600</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" s="6">
         <v>1</v>
@@ -1414,52 +1420,52 @@
         <v>2</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O10" s="8"/>
       <c r="P10" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R10" s="11">
         <v>7709577438</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" ht="25.5">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>123456</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2">
         <v>123456</v>
@@ -1471,7 +1477,7 @@
         <v>600</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J11" s="9">
         <v>1</v>
@@ -1480,60 +1486,60 @@
         <v>1</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="10">
         <v>45384</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R11" s="11">
         <v>7709577438</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" ht="25.5">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>123456</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2">
         <v>123456</v>
@@ -1545,7 +1551,7 @@
         <v>600</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J12" s="9">
         <v>1</v>
@@ -1554,57 +1560,57 @@
         <v>1</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O12" s="10">
         <v>45384</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R12" s="11">
         <v>7709577438</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" ht="25.5">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>123456</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2">
         <v>123456</v>
@@ -1616,7 +1622,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J13" s="9">
         <v>1</v>
@@ -1625,57 +1631,57 @@
         <v>1</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O13" s="10">
         <v>45384</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R13" s="11">
         <v>7709577438</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" ht="25.5">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>123456</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="2">
         <v>123456</v>
@@ -1687,7 +1693,7 @@
         <v>600</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J14" s="9">
         <v>1</v>
@@ -1696,60 +1702,60 @@
         <v>1</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O14" s="10">
         <v>45384</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R14" s="11">
         <v>7709577438</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" ht="25.5">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="12">
         <v>123456</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2">
         <v>123456</v>
@@ -1761,7 +1767,7 @@
         <v>600</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J15" s="9">
         <v>1</v>
@@ -1770,57 +1776,57 @@
         <v>1</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O15" s="10">
         <v>45384</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R15" s="11">
         <v>7709577438</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="5">
         <v>123456</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16" s="5">
         <v>123456</v>
@@ -1832,10 +1838,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K16" s="6">
         <v>1</v>
@@ -1844,52 +1850,52 @@
         <v>1</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O16" s="8"/>
       <c r="P16" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R16" s="11">
         <v>7709577438</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" ht="38.25">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>123456</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2">
         <v>123456</v>
@@ -1901,7 +1907,7 @@
         <v>600</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J17" s="9">
         <v>1</v>
@@ -1910,57 +1916,57 @@
         <v>1</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O17" s="10">
         <v>45384</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R17" s="11">
         <v>7709577438</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="13">
         <v>123456</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F18" s="1">
         <v>123456</v>
@@ -1972,66 +1978,66 @@
         <v>600</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R18" s="11">
         <v>7709577438</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="5">
         <v>123456</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F19" s="5">
         <v>123456</v>
@@ -2043,10 +2049,10 @@
         <v>600</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K19" s="6">
         <v>1</v>
@@ -2055,50 +2061,50 @@
         <v>1</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O19" s="8"/>
       <c r="P19" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R19" s="11">
         <v>7709577438</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1">
         <v>123456</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="1">
         <v>123456</v>
@@ -2110,66 +2116,66 @@
         <v>600</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R20" s="11">
         <v>7709577438</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1">
         <v>123456</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F21" s="1">
         <v>123456</v>
@@ -2181,66 +2187,66 @@
         <v>600</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O21" s="14">
         <v>45384</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R21" s="11">
         <v>7709577438</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T21" s="3">
         <v>300</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" ht="25.5">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>123456</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F22" s="2">
         <v>123456</v>
@@ -2252,7 +2258,7 @@
         <v>600</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J22" s="9">
         <v>1</v>
@@ -2261,57 +2267,57 @@
         <v>1</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O22" s="10">
         <v>45384</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R22" s="11">
         <v>7709577438</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" ht="25.5">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>123456</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F23" s="2">
         <v>123456</v>
@@ -2323,7 +2329,7 @@
         <v>600</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J23" s="9">
         <v>1</v>
@@ -2332,57 +2338,57 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O23" s="10">
         <v>45384</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R23" s="11">
         <v>7709577438</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" ht="25.5">
       <c r="A24" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>123456</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F24" s="2">
         <v>123456</v>
@@ -2394,7 +2400,7 @@
         <v>600</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J24" s="9">
         <v>1</v>
@@ -2403,57 +2409,57 @@
         <v>1</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O24" s="10">
         <v>45384</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R24" s="11">
         <v>7709577438</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" ht="25.5">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>123456</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F25" s="2">
         <v>123456</v>
@@ -2465,7 +2471,7 @@
         <v>600</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J25" s="9">
         <v>1</v>
@@ -2474,57 +2480,57 @@
         <v>1</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O25" s="10">
         <v>45384</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R25" s="11">
         <v>7709577438</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" ht="25.5">
       <c r="A26" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>123456</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F26" s="2">
         <v>123456</v>
@@ -2536,7 +2542,7 @@
         <v>600</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J26" s="9">
         <v>1</v>
@@ -2545,57 +2551,57 @@
         <v>1</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O26" s="10">
         <v>45384</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R26" s="11">
         <v>7709577438</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" ht="25.5">
       <c r="A27" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>123456</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F27" s="2">
         <v>123456</v>
@@ -2607,7 +2613,7 @@
         <v>600</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J27" s="9">
         <v>1</v>
@@ -2616,57 +2622,57 @@
         <v>1</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O27" s="10">
         <v>45384</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R27" s="11">
         <v>7709577438</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" ht="25.5">
       <c r="A28" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>123456</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F28" s="2">
         <v>123456</v>
@@ -2678,7 +2684,7 @@
         <v>600</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J28" s="9">
         <v>1</v>
@@ -2687,57 +2693,57 @@
         <v>1</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O28" s="10">
         <v>45384</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R28" s="11">
         <v>7709577438</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" ht="25.5">
       <c r="A29" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>123456</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F29" s="2">
         <v>123456</v>
@@ -2749,7 +2755,7 @@
         <v>600</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J29" s="9">
         <v>1</v>
@@ -2758,57 +2764,57 @@
         <v>1</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O29" s="10">
         <v>45384</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R29" s="11">
         <v>7709577438</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" ht="25.5">
       <c r="A30" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>123456</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F30" s="2">
         <v>123456</v>
@@ -2820,7 +2826,7 @@
         <v>600</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J30" s="9">
         <v>1</v>
@@ -2829,57 +2835,57 @@
         <v>1</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O30" s="10">
         <v>45384</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R30" s="11">
         <v>7709577438</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" ht="25.5">
       <c r="A31" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>123456</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F31" s="2">
         <v>123456</v>
@@ -2891,7 +2897,7 @@
         <v>600</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J31" s="9">
         <v>1</v>
@@ -2900,40 +2906,40 @@
         <v>1</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O31" s="10">
         <v>45384</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R31" s="11">
         <v>7709577438</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Web_POS/Billing/keyboard_shortcut_test_data.xlsx
+++ b/TestData/Web_POS/Billing/keyboard_shortcut_test_data.xlsx
@@ -1,351 +1,377 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Web_POS\Billing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>TC_Id</t>
-  </si>
-  <si>
-    <t>serial_key</t>
-  </si>
-  <si>
-    <t>username_admin</t>
-  </si>
-  <si>
-    <t>password_admin</t>
-  </si>
-  <si>
-    <t>username_pos</t>
-  </si>
-  <si>
-    <t>password_pos</t>
-  </si>
-  <si>
-    <t>closing_balance</t>
-  </si>
-  <si>
-    <t>opening_balance</t>
-  </si>
-  <si>
-    <t>store_name</t>
-  </si>
-  <si>
-    <t>assortment</t>
-  </si>
-  <si>
-    <t>categories</t>
-  </si>
-  <si>
-    <t>payment</t>
-  </si>
-  <si>
-    <t>buy_items</t>
-  </si>
-  <si>
-    <t>get_items</t>
-  </si>
-  <si>
-    <t>dob</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>manual_discount</t>
-  </si>
-  <si>
-    <t>discount_value</t>
-  </si>
-  <si>
-    <t>carry_bag</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>shortcut_key</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>tax_invoice</t>
-  </si>
-  <si>
-    <t>KB_1</t>
-  </si>
-  <si>
-    <t>307260624WoJ</t>
-  </si>
-  <si>
-    <t>zwshashank.agrawal@teampureplay.com</t>
-  </si>
-  <si>
-    <t>userone_p1</t>
-  </si>
-  <si>
-    <t>Index9QA</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>8906118410781 : 1</t>
-  </si>
-  <si>
-    <t>Null</t>
-  </si>
-  <si>
-    <t>ctrl+s</t>
-  </si>
-  <si>
-    <t>KB_2</t>
-  </si>
-  <si>
-    <t>CTRL+g</t>
-  </si>
-  <si>
-    <t>KB_3</t>
-  </si>
-  <si>
-    <t>QBSB-Specificqty-Flat-percentage</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>CTRL+ALT+r</t>
-  </si>
-  <si>
-    <t>KB_4</t>
-  </si>
-  <si>
-    <t>307260624buU</t>
-  </si>
-  <si>
-    <t>userone_p9</t>
-  </si>
-  <si>
-    <t>CTRL+1</t>
-  </si>
-  <si>
-    <t>KB_5</t>
-  </si>
-  <si>
-    <t>list : Assortment_Item</t>
-  </si>
-  <si>
-    <t>Amount : 10</t>
-  </si>
-  <si>
-    <t>CTRL+2</t>
-  </si>
-  <si>
-    <t>KB_6</t>
-  </si>
-  <si>
-    <t>cash : 100, paytm : 100, voucher : 0</t>
-  </si>
-  <si>
-    <t>CTRL+3</t>
-  </si>
-  <si>
-    <t>KB_7</t>
-  </si>
-  <si>
-    <t>CTRL+5</t>
-  </si>
-  <si>
-    <t>KB_8</t>
-  </si>
-  <si>
-    <t>Carry Bag Latest : 1</t>
-  </si>
-  <si>
-    <t>CTRL+6</t>
-  </si>
-  <si>
-    <t>KB_9</t>
-  </si>
-  <si>
-    <t>QBSB-Specificqty-Flat-rupees</t>
-  </si>
-  <si>
-    <t>CTRL+a</t>
-  </si>
-  <si>
-    <t>KB_10</t>
-  </si>
-  <si>
-    <t>Dummy</t>
-  </si>
-  <si>
-    <t>KB_11</t>
-  </si>
-  <si>
-    <t>CTRL+x</t>
-  </si>
-  <si>
-    <t>KB_12</t>
-  </si>
-  <si>
-    <t>CTRL+b</t>
-  </si>
-  <si>
-    <t>KB_13</t>
-  </si>
-  <si>
-    <t>307260624Wa9</t>
-  </si>
-  <si>
-    <t>userone_p10</t>
-  </si>
-  <si>
-    <t>KB_14</t>
-  </si>
-  <si>
-    <t>307260624dq3</t>
-  </si>
-  <si>
-    <t>KB_15</t>
-  </si>
-  <si>
-    <t>QBSB-Any Qty-get pool-spf-Rupees</t>
-  </si>
-  <si>
-    <t>KB_16</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>CTRL+s</t>
-  </si>
-  <si>
-    <t>KB_17</t>
-  </si>
-  <si>
-    <t>CTRL+G</t>
-  </si>
-  <si>
-    <t>KB_18</t>
-  </si>
-  <si>
-    <t>QBSB-Specificity-Flat-fixed-all</t>
-  </si>
-  <si>
-    <t>CTRL+ALT+R</t>
-  </si>
-  <si>
-    <t>KB_19</t>
-  </si>
-  <si>
-    <t>KB_20</t>
-  </si>
-  <si>
-    <t>KB_21</t>
-  </si>
-  <si>
-    <t>KB_22</t>
-  </si>
-  <si>
-    <t>KB_23</t>
-  </si>
-  <si>
-    <t>KB_24</t>
-  </si>
-  <si>
-    <t>KB_25</t>
-  </si>
-  <si>
-    <t>KB_26</t>
-  </si>
-  <si>
-    <t>KB_27</t>
-  </si>
-  <si>
-    <t>KB_28</t>
-  </si>
-  <si>
-    <t>KB_29</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>KB_30</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="94">
+  <si>
+    <t xml:space="preserve">TC_Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serial_key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username_pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password_pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closing_balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opening_balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">store_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assortment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy_items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manual_discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discount_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carry_bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shortcut_key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax_invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307260624WoJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zwshashank.agrawal@teampureplay.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userone_p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index9QA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8906118410781 : 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ctrl+s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTRL+g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QBSB-Specificqty-Flat-percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maharashtra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTRL+ALT+r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307260624buU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userone_p9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTRL+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list : Assortment_Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount : 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTRL+2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cash : 100, paytm : 100, voucher : 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTRL+3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTRL+5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carry Bag Latest : 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTRL+6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QBSB-Specificqty-Flat-rupees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTRL+a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTRL+x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTRL+b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307260624Wa9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userone_p10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307260624dq3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QBSB-Any Qty-get pool-spf-Rupees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTRL+s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTRL+G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QBSB-Specificity-Flat-fixed-all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTRL+ALT+R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB_30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF2B579A"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF2B579A"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,119 +379,242 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E7E7"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7E7E7"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFE7E7E7"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right style="medium">
         <color rgb="FF2B579A"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF2B579A"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellStyleXfs count="22">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ConditionalFormatStyle" xfId="1"/>
-    <cellStyle name="HeaderStyle" xfId="2"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="ConditionalFormatStyle" xfId="20"/>
+    <cellStyle name="HeaderStyle" xfId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFE7E7E7"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF2B579A"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -473,243 +622,131 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -718,36 +755,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0" topLeftCell="O1">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V13" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X24" activeCellId="0" sqref="X24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.42969" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="48.57031" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.84766" customWidth="1"/>
-    <col min="5" max="5" width="19.09766" customWidth="1"/>
-    <col min="6" max="6" width="14.82031" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="19.64063" customWidth="1"/>
-    <col min="9" max="9" width="21.07031" customWidth="1"/>
-    <col min="10" max="10" width="30.70703" customWidth="1"/>
-    <col min="11" max="11" width="18.20703" customWidth="1"/>
-    <col min="12" max="12" width="20.17969" customWidth="1"/>
-    <col min="13" max="13" width="21.85547" customWidth="1"/>
-    <col min="14" max="14" width="21.85547" customWidth="1"/>
-    <col min="15" max="20" width="11.42969" customWidth="1"/>
-    <col min="21" max="21" width="20.71094" customWidth="1"/>
-    <col min="22" max="22" width="11.42969" customWidth="1"/>
-    <col min="23" max="23" width="14.28516" customWidth="1"/>
-    <col min="24" max="1021" width="11.42969" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="30.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="21.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="15" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="14.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="24" style="0" width="11.43"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5">
+    <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,14 +857,14 @@
       <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="14.25">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -834,19 +874,19 @@
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1" t="n">
         <v>123456</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="1">
-        <v>123456</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -889,11 +929,11 @@
       <c r="V2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" ht="14.25">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -903,19 +943,19 @@
       <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="1" t="n">
         <v>123456</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1">
-        <v>123456</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G3" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -958,11 +998,11 @@
       <c r="V3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" ht="28.5">
+    <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -972,19 +1012,19 @@
       <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="5" t="n">
         <v>123456</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="5">
-        <v>123456</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4" s="5" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G4" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="4" t="n">
         <v>600</v>
       </c>
       <c r="I4" s="6" t="s">
@@ -993,10 +1033,10 @@
       <c r="J4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="6">
-        <v>1</v>
-      </c>
-      <c r="L4" s="6">
+      <c r="K4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6" t="n">
         <v>2</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -1027,11 +1067,11 @@
       <c r="V4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" ht="28.5">
+    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -1041,19 +1081,19 @@
       <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="5" t="n">
         <v>123456</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="5">
-        <v>123456</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5" s="5" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G5" s="4" t="n">
         <v>1000</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="4" t="n">
         <v>600</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -1062,10 +1102,10 @@
       <c r="J5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="6">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6">
+      <c r="K5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6" t="n">
         <v>2</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -1096,11 +1136,11 @@
       <c r="V5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="0" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" ht="38.25">
+    <row r="6" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1110,28 +1150,28 @@
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G6" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="9">
-        <v>1</v>
-      </c>
-      <c r="K6" s="9">
+      <c r="J6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -1143,7 +1183,7 @@
       <c r="N6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="10" t="n">
         <v>45384</v>
       </c>
       <c r="P6" s="10" t="s">
@@ -1167,11 +1207,11 @@
       <c r="V6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="0" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" ht="25.5">
+    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -1181,28 +1221,28 @@
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="9">
-        <v>1</v>
-      </c>
-      <c r="K7" s="9">
+      <c r="J7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -1214,7 +1254,7 @@
       <c r="N7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="10" t="n">
         <v>45384</v>
       </c>
       <c r="P7" s="10" t="s">
@@ -1223,7 +1263,7 @@
       <c r="Q7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S7" s="3" t="s">
@@ -1238,11 +1278,11 @@
       <c r="V7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" ht="25.5">
+    <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -1252,28 +1292,28 @@
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F8" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G8" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="9">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9">
+      <c r="J8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L8" s="3" t="s">
@@ -1285,7 +1325,7 @@
       <c r="N8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="10" t="n">
         <v>45384</v>
       </c>
       <c r="P8" s="10" t="s">
@@ -1294,7 +1334,7 @@
       <c r="Q8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S8" s="3" t="s">
@@ -1309,11 +1349,11 @@
       <c r="V8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" ht="28.5">
+    <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1323,19 +1363,19 @@
       <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="5" t="n">
         <v>123456</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="5">
-        <v>123456</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="F9" s="5" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G9" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I9" s="6" t="s">
@@ -1344,10 +1384,10 @@
       <c r="J9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="6">
-        <v>1</v>
-      </c>
-      <c r="L9" s="6">
+      <c r="K9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6" t="n">
         <v>2</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -1363,7 +1403,7 @@
       <c r="Q9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S9" s="3" t="s">
@@ -1378,11 +1418,11 @@
       <c r="V9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" s="0" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" ht="14.25">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
@@ -1392,19 +1432,19 @@
       <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="5" t="n">
         <v>123456</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="5">
-        <v>123456</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="F10" s="5" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G10" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I10" s="6" t="s">
@@ -1413,10 +1453,10 @@
       <c r="J10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="6">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6">
+      <c r="K10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6" t="n">
         <v>2</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -1432,7 +1472,7 @@
       <c r="Q10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S10" s="3" t="s">
@@ -1447,11 +1487,11 @@
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" ht="25.5">
+    <row r="11" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>60</v>
       </c>
@@ -1461,28 +1501,28 @@
       <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="F11" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G11" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="9">
-        <v>1</v>
-      </c>
-      <c r="K11" s="9">
+      <c r="J11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="3" t="s">
@@ -1494,7 +1534,7 @@
       <c r="N11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="10" t="n">
         <v>45384</v>
       </c>
       <c r="P11" s="10" t="s">
@@ -1503,7 +1543,7 @@
       <c r="Q11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S11" s="3" t="s">
@@ -1518,14 +1558,14 @@
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W11" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="X11" t="s">
+      <c r="X11" s="0" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" ht="25.5">
+    <row r="12" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -1535,28 +1575,28 @@
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="F12" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G12" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="9">
-        <v>1</v>
-      </c>
-      <c r="K12" s="9">
+      <c r="J12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="3" t="s">
@@ -1568,7 +1608,7 @@
       <c r="N12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="10" t="n">
         <v>45384</v>
       </c>
       <c r="P12" s="10" t="s">
@@ -1577,7 +1617,7 @@
       <c r="Q12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S12" s="3" t="s">
@@ -1592,11 +1632,11 @@
       <c r="V12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W12" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" ht="25.5">
+    <row r="13" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -1606,28 +1646,28 @@
       <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="F13" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G13" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="9">
-        <v>1</v>
-      </c>
-      <c r="K13" s="9">
+      <c r="J13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L13" s="3" t="s">
@@ -1639,7 +1679,7 @@
       <c r="N13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="10" t="n">
         <v>45384</v>
       </c>
       <c r="P13" s="10" t="s">
@@ -1648,7 +1688,7 @@
       <c r="Q13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S13" s="3" t="s">
@@ -1663,11 +1703,11 @@
       <c r="V13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W13" t="s">
+      <c r="W13" s="0" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" ht="25.5">
+    <row r="14" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
@@ -1677,28 +1717,28 @@
       <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="F14" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G14" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="9">
-        <v>1</v>
-      </c>
-      <c r="K14" s="9">
+      <c r="J14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="3" t="s">
@@ -1710,7 +1750,7 @@
       <c r="N14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="10" t="n">
         <v>45384</v>
       </c>
       <c r="P14" s="10" t="s">
@@ -1719,7 +1759,7 @@
       <c r="Q14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S14" s="3" t="s">
@@ -1734,14 +1774,14 @@
       <c r="V14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W14" t="s">
+      <c r="W14" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="X14" t="s">
+      <c r="X14" s="0" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" ht="25.5">
+    <row r="15" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
@@ -1751,28 +1791,28 @@
       <c r="C15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="12" t="n">
         <v>123456</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="F15" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G15" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="9">
-        <v>1</v>
-      </c>
-      <c r="K15" s="9">
+      <c r="J15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L15" s="3" t="s">
@@ -1784,7 +1824,7 @@
       <c r="N15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="10" t="n">
         <v>45384</v>
       </c>
       <c r="P15" s="10" t="s">
@@ -1793,7 +1833,7 @@
       <c r="Q15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S15" s="3" t="s">
@@ -1808,11 +1848,11 @@
       <c r="V15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W15" t="s">
+      <c r="W15" s="0" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" ht="14.25">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>71</v>
       </c>
@@ -1822,19 +1862,19 @@
       <c r="C16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="5" t="n">
         <v>123456</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="5">
-        <v>123456</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="F16" s="5" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G16" s="6" t="n">
         <v>1000</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="s">
@@ -1843,10 +1883,10 @@
       <c r="J16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="6">
-        <v>1</v>
-      </c>
-      <c r="L16" s="6">
+      <c r="K16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M16" s="1" t="s">
@@ -1862,7 +1902,7 @@
       <c r="Q16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S16" s="3" t="s">
@@ -1877,11 +1917,11 @@
       <c r="V16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W16" t="s">
+      <c r="W16" s="0" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" ht="38.25">
+    <row r="17" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>73</v>
       </c>
@@ -1891,28 +1931,28 @@
       <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="F17" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G17" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="9">
-        <v>1</v>
-      </c>
-      <c r="K17" s="9">
+      <c r="J17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L17" s="3" t="s">
@@ -1924,7 +1964,7 @@
       <c r="N17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="10" t="n">
         <v>45384</v>
       </c>
       <c r="P17" s="10" t="s">
@@ -1933,7 +1973,7 @@
       <c r="Q17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S17" s="3" t="s">
@@ -1948,11 +1988,11 @@
       <c r="V17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W17" t="s">
+      <c r="W17" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" ht="14.25">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>76</v>
       </c>
@@ -1962,19 +2002,19 @@
       <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="13" t="n">
         <v>123456</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="1">
-        <v>123456</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="F18" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G18" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -2004,7 +2044,7 @@
       <c r="Q18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S18" s="3" t="s">
@@ -2019,11 +2059,11 @@
       <c r="V18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W18" t="s">
+      <c r="W18" s="0" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" ht="14.25">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>78</v>
       </c>
@@ -2033,19 +2073,19 @@
       <c r="C19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="5" t="n">
         <v>123456</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="5">
-        <v>123456</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="F19" s="5" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G19" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I19" s="6" t="s">
@@ -2054,10 +2094,10 @@
       <c r="J19" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="K19" s="6">
-        <v>1</v>
-      </c>
-      <c r="L19" s="6">
+      <c r="K19" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M19" s="1" t="s">
@@ -2073,7 +2113,7 @@
       <c r="Q19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S19" s="3" t="s">
@@ -2086,11 +2126,11 @@
       <c r="V19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W19" t="s">
+      <c r="W19" s="0" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" ht="14.25">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -2100,19 +2140,19 @@
       <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="1" t="n">
         <v>123456</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="1">
-        <v>123456</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="F20" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G20" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -2142,7 +2182,7 @@
       <c r="Q20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R20" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S20" s="3" t="s">
@@ -2157,11 +2197,11 @@
       <c r="V20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W20" t="s">
+      <c r="W20" s="0" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" ht="14.25">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
@@ -2171,19 +2211,19 @@
       <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="1" t="n">
         <v>123456</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="1">
-        <v>123456</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="F21" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G21" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -2204,7 +2244,7 @@
       <c r="N21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="14" t="n">
         <v>45384</v>
       </c>
       <c r="P21" s="1" t="s">
@@ -2213,13 +2253,13 @@
       <c r="Q21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R21" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="n">
         <v>300</v>
       </c>
       <c r="U21" s="1" t="s">
@@ -2228,11 +2268,11 @@
       <c r="V21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W21" t="s">
+      <c r="W21" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" ht="25.5">
+    <row r="22" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>83</v>
       </c>
@@ -2242,28 +2282,28 @@
       <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="F22" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G22" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="9">
-        <v>1</v>
-      </c>
-      <c r="K22" s="9">
+      <c r="J22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L22" s="3" t="s">
@@ -2275,7 +2315,7 @@
       <c r="N22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="10" t="n">
         <v>45384</v>
       </c>
       <c r="P22" s="10" t="s">
@@ -2284,7 +2324,7 @@
       <c r="Q22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R22" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S22" s="3" t="s">
@@ -2299,11 +2339,11 @@
       <c r="V22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W22" t="s">
+      <c r="W22" s="0" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" ht="25.5">
+    <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>84</v>
       </c>
@@ -2313,28 +2353,28 @@
       <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="F23" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G23" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="9">
-        <v>1</v>
-      </c>
-      <c r="K23" s="9">
+      <c r="J23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L23" s="3" t="s">
@@ -2346,7 +2386,7 @@
       <c r="N23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="10" t="n">
         <v>45384</v>
       </c>
       <c r="P23" s="10" t="s">
@@ -2355,7 +2395,7 @@
       <c r="Q23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S23" s="3" t="s">
@@ -2370,11 +2410,11 @@
       <c r="V23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W23" t="s">
+      <c r="W23" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" ht="25.5">
+    <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>85</v>
       </c>
@@ -2384,28 +2424,28 @@
       <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="F24" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G24" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="9">
-        <v>1</v>
-      </c>
-      <c r="K24" s="9">
+      <c r="J24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L24" s="3" t="s">
@@ -2417,7 +2457,7 @@
       <c r="N24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O24" s="10">
+      <c r="O24" s="10" t="n">
         <v>45384</v>
       </c>
       <c r="P24" s="10" t="s">
@@ -2426,7 +2466,7 @@
       <c r="Q24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R24" s="11">
+      <c r="R24" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S24" s="3" t="s">
@@ -2441,11 +2481,14 @@
       <c r="V24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W24" t="s">
+      <c r="W24" s="0" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" ht="25.5">
+      <c r="X24" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>86</v>
       </c>
@@ -2455,28 +2498,28 @@
       <c r="C25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="F25" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G25" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="9">
-        <v>1</v>
-      </c>
-      <c r="K25" s="9">
+      <c r="J25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L25" s="3" t="s">
@@ -2488,7 +2531,7 @@
       <c r="N25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="10">
+      <c r="O25" s="10" t="n">
         <v>45384</v>
       </c>
       <c r="P25" s="10" t="s">
@@ -2497,7 +2540,7 @@
       <c r="Q25" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R25" s="11">
+      <c r="R25" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S25" s="3" t="s">
@@ -2512,11 +2555,11 @@
       <c r="V25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W25" t="s">
+      <c r="W25" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" ht="25.5">
+    <row r="26" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>87</v>
       </c>
@@ -2526,28 +2569,28 @@
       <c r="C26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="F26" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G26" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="9">
-        <v>1</v>
-      </c>
-      <c r="K26" s="9">
+      <c r="J26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L26" s="3" t="s">
@@ -2559,7 +2602,7 @@
       <c r="N26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O26" s="10">
+      <c r="O26" s="10" t="n">
         <v>45384</v>
       </c>
       <c r="P26" s="10" t="s">
@@ -2568,7 +2611,7 @@
       <c r="Q26" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R26" s="11">
+      <c r="R26" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S26" s="3" t="s">
@@ -2583,11 +2626,11 @@
       <c r="V26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W26" t="s">
+      <c r="W26" s="0" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" ht="25.5">
+    <row r="27" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>88</v>
       </c>
@@ -2597,28 +2640,28 @@
       <c r="C27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="F27" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G27" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J27" s="9">
-        <v>1</v>
-      </c>
-      <c r="K27" s="9">
+      <c r="J27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L27" s="3" t="s">
@@ -2630,7 +2673,7 @@
       <c r="N27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O27" s="10">
+      <c r="O27" s="10" t="n">
         <v>45384</v>
       </c>
       <c r="P27" s="10" t="s">
@@ -2639,7 +2682,7 @@
       <c r="Q27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R27" s="11">
+      <c r="R27" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S27" s="3" t="s">
@@ -2654,11 +2697,11 @@
       <c r="V27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W27" t="s">
+      <c r="W27" s="0" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" ht="25.5">
+    <row r="28" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>89</v>
       </c>
@@ -2668,28 +2711,28 @@
       <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="F28" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G28" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J28" s="9">
-        <v>1</v>
-      </c>
-      <c r="K28" s="9">
+      <c r="J28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L28" s="3" t="s">
@@ -2701,7 +2744,7 @@
       <c r="N28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O28" s="10">
+      <c r="O28" s="10" t="n">
         <v>45384</v>
       </c>
       <c r="P28" s="10" t="s">
@@ -2710,7 +2753,7 @@
       <c r="Q28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R28" s="11">
+      <c r="R28" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S28" s="3" t="s">
@@ -2725,11 +2768,11 @@
       <c r="V28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W28" t="s">
+      <c r="W28" s="0" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" ht="25.5">
+    <row r="29" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
@@ -2739,28 +2782,28 @@
       <c r="C29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="F29" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G29" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J29" s="9">
-        <v>1</v>
-      </c>
-      <c r="K29" s="9">
+      <c r="J29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L29" s="3" t="s">
@@ -2772,7 +2815,7 @@
       <c r="N29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O29" s="10">
+      <c r="O29" s="10" t="n">
         <v>45384</v>
       </c>
       <c r="P29" s="10" t="s">
@@ -2781,7 +2824,7 @@
       <c r="Q29" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R29" s="11">
+      <c r="R29" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S29" s="3" t="s">
@@ -2796,11 +2839,11 @@
       <c r="V29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W29" t="s">
+      <c r="W29" s="0" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" ht="25.5">
+    <row r="30" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>91</v>
       </c>
@@ -2810,28 +2853,28 @@
       <c r="C30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="F30" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G30" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J30" s="9">
-        <v>1</v>
-      </c>
-      <c r="K30" s="9">
+      <c r="J30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L30" s="3" t="s">
@@ -2843,7 +2886,7 @@
       <c r="N30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O30" s="10">
+      <c r="O30" s="10" t="n">
         <v>45384</v>
       </c>
       <c r="P30" s="10" t="s">
@@ -2852,7 +2895,7 @@
       <c r="Q30" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R30" s="11">
+      <c r="R30" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S30" s="3" t="s">
@@ -2867,11 +2910,11 @@
       <c r="V30" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W30" t="s">
+      <c r="W30" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" ht="25.5">
+    <row r="31" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>93</v>
       </c>
@@ -2881,28 +2924,28 @@
       <c r="C31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="F31" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G31" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="1" t="n">
         <v>600</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J31" s="9">
-        <v>1</v>
-      </c>
-      <c r="K31" s="9">
+      <c r="J31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L31" s="3" t="s">
@@ -2914,7 +2957,7 @@
       <c r="N31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O31" s="10">
+      <c r="O31" s="10" t="n">
         <v>45384</v>
       </c>
       <c r="P31" s="10" t="s">
@@ -2923,7 +2966,7 @@
       <c r="Q31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R31" s="11">
+      <c r="R31" s="11" t="n">
         <v>7709577438</v>
       </c>
       <c r="S31" s="3" t="s">
@@ -2938,15 +2981,15 @@
       <c r="V31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W31" t="s">
+      <c r="W31" s="0" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.052778" bottom="1.052778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
